--- a/data/trans_dic/P5_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,02; 33,67</t>
+          <t>25,15; 33,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,45; 40,56</t>
+          <t>31,82; 41,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,58; 40,07</t>
+          <t>30,53; 39,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,05; 25,2</t>
+          <t>12,74; 25,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,25; 37,24</t>
+          <t>29,57; 37,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,07; 41,7</t>
+          <t>32,42; 41,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,38; 38,71</t>
+          <t>29,05; 38,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,86; 32,62</t>
+          <t>18,92; 32,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,35; 34,46</t>
+          <t>28,47; 34,33</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33,13; 39,61</t>
+          <t>33,3; 39,85</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>31,5; 37,66</t>
+          <t>31,37; 37,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,53; 26,44</t>
+          <t>17,33; 26,02</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,78; 31,73</t>
+          <t>24,53; 31,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,06; 43,7</t>
+          <t>35,69; 43,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,94; 41,02</t>
+          <t>32,96; 40,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,45; 22,71</t>
+          <t>13,66; 22,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,14; 35,88</t>
+          <t>28,15; 35,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,29; 42,28</t>
+          <t>34,05; 42,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,33; 42,53</t>
+          <t>34,7; 42,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,45; 24,83</t>
+          <t>16,36; 24,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,27; 32,22</t>
+          <t>27,43; 32,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>35,83; 41,65</t>
+          <t>36,36; 41,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>35,03; 40,46</t>
+          <t>34,65; 40,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,01; 22,47</t>
+          <t>15,84; 22,1</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,14; 33,43</t>
+          <t>25,8; 33,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,51; 42,38</t>
+          <t>34,56; 42,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,65; 37,09</t>
+          <t>29,91; 37,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,73; 25,07</t>
+          <t>17,56; 25,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,97; 41,92</t>
+          <t>33,95; 41,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,87; 44,32</t>
+          <t>36,77; 44,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,61; 41,3</t>
+          <t>33,62; 41,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,08; 21,91</t>
+          <t>15,68; 22,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>31,43; 36,64</t>
+          <t>31,19; 36,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>36,78; 42,0</t>
+          <t>37,05; 42,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,62; 38,07</t>
+          <t>32,98; 38,34</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,88; 22,48</t>
+          <t>17,84; 22,71</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,25; 36,38</t>
+          <t>28,55; 37,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>36,06; 44,6</t>
+          <t>35,86; 44,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,87; 42,87</t>
+          <t>35,13; 43,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,2; 23,21</t>
+          <t>15,01; 23,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,63; 39,8</t>
+          <t>31,43; 39,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,68; 48,11</t>
+          <t>39,43; 48,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,61; 43,66</t>
+          <t>35,37; 43,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,73; 23,8</t>
+          <t>18,62; 24,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,3; 37,22</t>
+          <t>31,2; 37,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>38,99; 45,03</t>
+          <t>39,38; 44,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>36,61; 41,99</t>
+          <t>36,55; 42,06</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,76; 22,53</t>
+          <t>17,76; 22,82</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,93; 34,9</t>
+          <t>25,68; 34,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38,87; 48,95</t>
+          <t>38,22; 48,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,13; 41,66</t>
+          <t>32,51; 41,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,52; 19,36</t>
+          <t>13,67; 19,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,33; 41,63</t>
+          <t>32,17; 41,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,45; 44,15</t>
+          <t>34,07; 43,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,03; 41,88</t>
+          <t>32,86; 42,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,44; 23,89</t>
+          <t>18,37; 23,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,15; 36,92</t>
+          <t>30,19; 36,91</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>37,77; 44,97</t>
+          <t>37,9; 44,99</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,74; 40,52</t>
+          <t>34,05; 40,37</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,99; 20,83</t>
+          <t>16,73; 20,63</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,45; 32,25</t>
+          <t>23,99; 31,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>36,44; 45,66</t>
+          <t>36,75; 45,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30,68; 38,39</t>
+          <t>30,71; 38,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,93; 18,77</t>
+          <t>14,15; 18,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,29; 35,26</t>
+          <t>27,96; 35,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>36,06; 43,94</t>
+          <t>35,81; 43,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,14; 36,74</t>
+          <t>29,28; 36,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,69; 44,52</t>
+          <t>15,82; 48,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,43; 32,64</t>
+          <t>27,51; 32,66</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>37,42; 42,96</t>
+          <t>37,47; 42,8</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>31,21; 36,36</t>
+          <t>31,18; 36,56</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,98; 37,82</t>
+          <t>15,87; 39,31</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>28,09; 31,18</t>
+          <t>27,79; 31,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>37,95; 41,44</t>
+          <t>37,96; 41,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>34,32; 37,59</t>
+          <t>34,35; 37,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,7; 19,81</t>
+          <t>16,74; 19,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>32,88; 36,13</t>
+          <t>32,7; 36,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>38,26; 41,64</t>
+          <t>38,27; 41,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,91; 38,3</t>
+          <t>34,99; 38,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,52; 31,36</t>
+          <t>19,51; 30,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>30,77; 33,17</t>
+          <t>30,83; 33,15</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>38,48; 40,98</t>
+          <t>38,49; 40,97</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>35,15; 37,43</t>
+          <t>35,12; 37,41</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,74; 25,48</t>
+          <t>18,78; 24,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P5_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,15; 33,0</t>
+          <t>25,16; 33,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,82; 41,4</t>
+          <t>31,76; 40,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,53; 39,73</t>
+          <t>30,39; 39,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,57; 37,98</t>
+          <t>29,36; 37,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,42; 41,85</t>
+          <t>31,94; 41,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,05; 38,08</t>
+          <t>29,31; 39,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,47; 34,33</t>
+          <t>28,43; 34,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33,3; 39,85</t>
+          <t>33,42; 39,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>31,37; 37,93</t>
+          <t>31,44; 37,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,53; 31,29</t>
+          <t>24,84; 31,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,69; 43,33</t>
+          <t>35,98; 43,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,96; 40,96</t>
+          <t>32,77; 40,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,15; 35,68</t>
+          <t>28,14; 35,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,05; 42,73</t>
+          <t>34,09; 42,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,7; 42,9</t>
+          <t>34,78; 42,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,43; 32,37</t>
+          <t>27,42; 32,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>36,36; 41,64</t>
+          <t>36,28; 41,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,65; 40,33</t>
+          <t>34,61; 40,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,8; 33,65</t>
+          <t>26,21; 33,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,56; 42,15</t>
+          <t>34,84; 42,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,91; 37,45</t>
+          <t>29,55; 36,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,95; 41,4</t>
+          <t>33,96; 41,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,77; 44,7</t>
+          <t>36,82; 43,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,62; 41,51</t>
+          <t>33,91; 41,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>31,19; 36,6</t>
+          <t>31,23; 36,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>37,05; 42,2</t>
+          <t>36,62; 42,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,98; 38,34</t>
+          <t>33,0; 38,04</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,55; 37,13</t>
+          <t>28,33; 37,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,86; 44,26</t>
+          <t>36,09; 44,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,13; 43,36</t>
+          <t>34,73; 42,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,43; 39,7</t>
+          <t>31,55; 40,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,43; 48,16</t>
+          <t>39,61; 47,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,37; 43,21</t>
+          <t>35,6; 43,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,2; 37,12</t>
+          <t>31,32; 37,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>39,38; 44,93</t>
+          <t>39,08; 45,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>36,55; 42,06</t>
+          <t>36,29; 42,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,68; 34,65</t>
+          <t>25,82; 35,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38,22; 48,66</t>
+          <t>38,53; 48,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,51; 41,72</t>
+          <t>32,62; 41,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>32,17; 41,58</t>
+          <t>31,84; 41,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,07; 43,92</t>
+          <t>34,97; 44,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,86; 42,34</t>
+          <t>32,99; 42,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,19; 36,91</t>
+          <t>30,23; 36,79</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>37,9; 44,99</t>
+          <t>37,72; 44,9</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>34,05; 40,37</t>
+          <t>33,89; 40,67</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,99; 31,88</t>
+          <t>23,88; 31,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>36,75; 45,33</t>
+          <t>36,3; 45,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30,71; 38,64</t>
+          <t>30,74; 38,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,96; 35,28</t>
+          <t>28,13; 35,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,81; 43,27</t>
+          <t>35,85; 43,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,28; 36,77</t>
+          <t>29,58; 36,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,51; 32,66</t>
+          <t>27,76; 32,79</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>37,47; 42,8</t>
+          <t>37,47; 43,02</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>31,18; 36,56</t>
+          <t>30,81; 36,48</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,79; 31,0</t>
+          <t>27,96; 31,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>37,96; 41,46</t>
+          <t>38,09; 41,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>34,35; 37,64</t>
+          <t>34,27; 37,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>32,7; 36,06</t>
+          <t>32,8; 36,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>38,27; 41,56</t>
+          <t>38,1; 41,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,99; 38,29</t>
+          <t>34,98; 38,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>30,83; 33,15</t>
+          <t>30,85; 33,16</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>38,49; 40,97</t>
+          <t>38,61; 40,96</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>35,12; 37,41</t>
+          <t>35,1; 37,41</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P5_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con algún problema medioambiental importante en la zona de residencia</t>
+          <t>Población con algún problema medioambiental en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,16; 33,12</t>
+          <t>25,02; 33,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,76; 40,96</t>
+          <t>31,45; 40,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,39; 39,92</t>
+          <t>30,58; 40,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,74; 25,48</t>
+          <t>12,05; 25,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,36; 37,96</t>
+          <t>29,25; 37,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,94; 41,62</t>
+          <t>32,07; 41,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,31; 39,09</t>
+          <t>29,38; 38,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,92; 32,97</t>
+          <t>18,86; 32,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,43; 34,56</t>
+          <t>28,35; 34,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33,42; 39,96</t>
+          <t>33,13; 39,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>31,44; 37,87</t>
+          <t>31,5; 37,66</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,33; 26,02</t>
+          <t>17,53; 26,44</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,84; 31,63</t>
+          <t>24,78; 31,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,98; 43,58</t>
+          <t>36,06; 43,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,77; 40,73</t>
+          <t>32,94; 41,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,66; 22,44</t>
+          <t>13,45; 22,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,14; 35,49</t>
+          <t>28,14; 35,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,09; 42,31</t>
+          <t>34,29; 42,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,78; 42,55</t>
+          <t>34,33; 42,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,36; 24,6</t>
+          <t>16,45; 24,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,42; 32,29</t>
+          <t>27,27; 32,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>36,28; 41,64</t>
+          <t>35,83; 41,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,61; 40,5</t>
+          <t>35,03; 40,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,84; 22,1</t>
+          <t>16,01; 22,47</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,21; 33,85</t>
+          <t>26,14; 33,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,84; 42,34</t>
+          <t>34,51; 42,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,55; 36,84</t>
+          <t>29,65; 37,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,56; 25,02</t>
+          <t>17,73; 25,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,96; 41,54</t>
+          <t>33,97; 41,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,82; 43,94</t>
+          <t>36,87; 44,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,91; 41,23</t>
+          <t>33,61; 41,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,68; 22,14</t>
+          <t>16,08; 21,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>31,23; 36,44</t>
+          <t>31,43; 36,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>36,62; 42,17</t>
+          <t>36,78; 42,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>33,0; 38,04</t>
+          <t>32,62; 38,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,84; 22,71</t>
+          <t>17,88; 22,48</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,33; 37,01</t>
+          <t>28,25; 36,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>36,09; 44,25</t>
+          <t>36,06; 44,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,73; 42,84</t>
+          <t>34,87; 42,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,01; 23,58</t>
+          <t>15,2; 23,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,55; 40,14</t>
+          <t>31,63; 39,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,61; 47,56</t>
+          <t>39,68; 48,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,6; 43,88</t>
+          <t>35,61; 43,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,62; 24,02</t>
+          <t>18,73; 23,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,32; 37,2</t>
+          <t>31,3; 37,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>39,08; 45,17</t>
+          <t>38,99; 45,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>36,29; 42,2</t>
+          <t>36,61; 41,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,76; 22,82</t>
+          <t>17,76; 22,53</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,82; 35,31</t>
+          <t>25,93; 34,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38,53; 48,18</t>
+          <t>38,87; 48,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,62; 41,67</t>
+          <t>32,13; 41,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,67; 19,38</t>
+          <t>13,52; 19,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,84; 41,46</t>
+          <t>31,33; 41,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,97; 44,28</t>
+          <t>34,45; 44,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,99; 42,19</t>
+          <t>33,03; 41,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,37; 23,8</t>
+          <t>18,44; 23,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,23; 36,79</t>
+          <t>30,15; 36,92</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>37,72; 44,9</t>
+          <t>37,77; 44,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,89; 40,67</t>
+          <t>33,74; 40,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,73; 20,63</t>
+          <t>16,99; 20,83</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,88; 31,67</t>
+          <t>24,45; 32,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>36,3; 45,07</t>
+          <t>36,44; 45,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30,74; 38,35</t>
+          <t>30,68; 38,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,15; 18,59</t>
+          <t>13,93; 18,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,13; 35,16</t>
+          <t>28,29; 35,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,85; 43,17</t>
+          <t>36,06; 43,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,58; 36,86</t>
+          <t>29,14; 36,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,82; 48,46</t>
+          <t>15,69; 44,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,76; 32,79</t>
+          <t>27,43; 32,64</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>37,47; 43,02</t>
+          <t>37,42; 42,96</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>30,81; 36,48</t>
+          <t>31,21; 36,36</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,87; 39,31</t>
+          <t>15,98; 37,82</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,96; 31,08</t>
+          <t>28,09; 31,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>38,09; 41,45</t>
+          <t>37,95; 41,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>34,27; 37,61</t>
+          <t>34,32; 37,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,74; 19,71</t>
+          <t>16,7; 19,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>32,8; 36,06</t>
+          <t>32,88; 36,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>38,1; 41,54</t>
+          <t>38,26; 41,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,98; 38,29</t>
+          <t>34,91; 38,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,51; 30,83</t>
+          <t>19,52; 31,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>30,85; 33,16</t>
+          <t>30,77; 33,17</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>38,61; 40,96</t>
+          <t>38,48; 40,98</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>35,1; 37,41</t>
+          <t>35,15; 37,43</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,78; 24,7</t>
+          <t>18,74; 25,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P5_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>20,79%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,05; 25,2</t>
+          <t>11,57; 24,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,86; 32,62</t>
+          <t>18,56; 32,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,53; 26,44</t>
+          <t>16,78; 25,87</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>17,59%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,45; 22,71</t>
+          <t>13,41; 22,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,45; 24,83</t>
+          <t>11,05; 22,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,01; 22,47</t>
+          <t>13,41; 21,08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>19,56%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,73; 25,07</t>
+          <t>17,6; 24,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,08; 21,91</t>
+          <t>13,67; 21,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,88; 22,48</t>
+          <t>16,74; 22,02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>17,76%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,2; 23,21</t>
+          <t>6,86; 22,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,73; 23,8</t>
+          <t>16,78; 23,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,76; 22,53</t>
+          <t>10,44; 21,83</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>18,6%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,52; 19,36</t>
+          <t>13,51; 19,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,44; 23,89</t>
+          <t>18,28; 23,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,99; 20,83</t>
+          <t>16,85; 20,73</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>40,86%</t>
+          <t>44,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>34,47%</t>
+          <t>38,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>31,73%</t>
+          <t>34,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>40,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>33,07%</t>
+          <t>36,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>44,99%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>31,05%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>40,08%</t>
+          <t>41,93%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>33,68%</t>
+          <t>37,38%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>34,65%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,45; 32,25</t>
+          <t>22,8; 32,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>36,44; 45,66</t>
+          <t>38,0; 50,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30,68; 38,39</t>
+          <t>33,12; 43,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,93; 18,77</t>
+          <t>14,57; 21,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,29; 35,26</t>
+          <t>29,08; 38,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>36,06; 43,94</t>
+          <t>34,73; 45,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,14; 36,74</t>
+          <t>31,82; 42,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,69; 44,52</t>
+          <t>16,29; 79,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,43; 32,64</t>
+          <t>27,83; 34,73</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>37,42; 42,96</t>
+          <t>37,79; 45,86</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>31,21; 36,36</t>
+          <t>33,5; 41,21</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,98; 37,82</t>
+          <t>16,63; 70,42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>36,89%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>29,3%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>34,41%</t>
+          <t>29,39%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>39,85%</t>
+          <t>38,95%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>36,61%</t>
+          <t>29,89%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>22,23%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>28,91%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>39,78%</t>
+          <t>38,15%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>36,3%</t>
+          <t>29,66%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>15,17%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>22,79; 34,7</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>30,48; 43,63</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>24,31; 35,47</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11,33; 18,23</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>24,63; 34,74</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>33,59; 44,23</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>24,62; 35,16</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>13,08; 18,23</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>25,06; 33,31</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>34,22; 42,47</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>25,95; 33,31</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13,23; 17,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>29,52%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>39,71%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>35,98%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>17,19%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>34,41%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>39,85%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>36,61%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>23,58%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>32,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>39,78%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>36,3%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>20,5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>28,09; 31,18</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>37,95; 41,44</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>34,32; 37,59</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>16,7; 19,81</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>13,48; 19,33</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>32,88; 36,13</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>38,26; 41,64</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>34,91; 38,3</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>19,52; 31,36</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>18,64; 39,86</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>30,77; 33,17</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>38,48; 40,98</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>35,15; 37,43</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>18,74; 25,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>17,68; 29,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
